--- a/Резы/Респа для 921 на 2020 год.xlsx
+++ b/Резы/Респа для 921 на 2020 год.xlsx
@@ -897,10 +897,8 @@
       </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>214У№3</t>
-        </is>
+      <c r="G7" s="3" t="n">
+        <v>214</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
@@ -1126,10 +1124,8 @@
       </c>
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="6" t="n"/>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
+      <c r="G15" s="3" t="n">
+        <v>301</v>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
@@ -1644,10 +1640,8 @@
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="6" t="n"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>214У№3</t>
-        </is>
+      <c r="H7" s="3" t="n">
+        <v>214</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -1900,7 +1894,8 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>II
+301</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
@@ -1968,8 +1963,11 @@
           <t>Вычислительная техника: лекция (общ)</t>
         </is>
       </c>
-      <c r="H17" s="9" t="n">
-        <v>102</v>
+      <c r="H17" s="9" t="inlineStr">
+        <is>
+          <t>102
+II</t>
+        </is>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -2503,10 +2501,8 @@
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
       <c r="H7" s="6" t="n"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>214У№3</t>
-        </is>
+      <c r="I7" s="3" t="n">
+        <v>214</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -2784,9 +2780,9 @@
       <c r="I15" s="3" t="inlineStr">
         <is>
           <t>II
-II
 301
-402</t>
+402
+202</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -2865,9 +2861,9 @@
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
-          <t>102
-II
+          <t>II
 102
+ФЗК_зал
 ФЗК_зал</t>
         </is>
       </c>
@@ -3377,10 +3373,8 @@
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="6" t="n"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>214У№3</t>
-        </is>
+      <c r="H7" s="3" t="n">
+        <v>214</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -3625,8 +3619,8 @@
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>II
-402</t>
+          <t>301
+202</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
@@ -3696,8 +3690,8 @@
       <c r="G17" s="12" t="n"/>
       <c r="H17" s="9" t="inlineStr">
         <is>
-          <t>102
-102
+          <t>II
+ФЗК_зал
 ФЗК_зал
 308</t>
         </is>
@@ -3811,7 +3805,7 @@
       <c r="H20" s="3" t="inlineStr">
         <is>
           <t>II, 102
-205</t>
+202</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
@@ -3973,7 +3967,7 @@
     <col width="88" customWidth="1" min="6" max="6"/>
     <col width="88" customWidth="1" min="7" max="7"/>
     <col width="92.34999999999999" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="28" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -4214,10 +4208,8 @@
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="14" t="n"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>214У№3</t>
-        </is>
+      <c r="I7" s="3" t="n">
+        <v>214</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -4501,9 +4493,9 @@
       <c r="H15" s="14" t="n"/>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>II
-402
-202</t>
+          <t>301
+202
+311</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -4681,8 +4673,8 @@
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>102
-205</t>
+          <t>102, 205
+202</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">

--- a/Резы/Респа для 921 на 2020 год.xlsx
+++ b/Резы/Респа для 921 на 2020 год.xlsx
@@ -66,15 +66,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -115,10 +115,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -146,63 +146,63 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -230,14 +230,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
